--- a/data/post_external/filtered_suggested_activities.xlsx
+++ b/data/post_external/filtered_suggested_activities.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>concatenated</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sum_similarity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -472,6 +477,9 @@
           <t>Technicien de Maintenance du matériel Prépresse CTP-Le service Prépresse est équipé des machines CTP (Computer To Plate) et ça nécessite un technicien pour l'installation, la mise en marche, la formation et la maintenance.</t>
         </is>
       </c>
+      <c r="E2" t="n">
+        <v>359.7183227539062</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -493,6 +501,9 @@
         <is>
           <t>الرسم بالزيت والرمل-رسم أشخاص وطبيعة و مناظر صحراوية  بالزيت والرمل</t>
         </is>
+      </c>
+      <c r="E3" t="n">
+        <v>274.4566040039062</v>
       </c>
     </row>
     <row r="4">
@@ -512,6 +523,9 @@
           <t>Commerce-Vente de tenues traditionnelles Algériennes ainsi que les bijoux et les accessoires de maison.</t>
         </is>
       </c>
+      <c r="E4" t="n">
+        <v>149.2233581542969</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -534,6 +548,9 @@
           <t>Créer sa propre marque de parfum (e-commerce)-Développer toutes une gamme de produits parfumés de qualité ( eau de parfum , brume pour le corps , brume de ligne .. etc )</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>179.3935852050781</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -556,6 +573,9 @@
           <t>تجارة الخردوات والعقاقير-والعقاقير النشاط متمث في بيع الخردوات</t>
         </is>
       </c>
+      <c r="E6" t="n">
+        <v>213.6558685302734</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -578,6 +598,9 @@
           <t>تربية و تعليم ركوب الخيل-ننظم خرجات ركوب الخيل اساسها تعليم اساسيات الركوب مع الترفيه عن النفس حيث تعتبر نشاط يقوي الشخصية و يحفز و يعطي طاقة ايجابية نحن كجزء من مزرعة خيل لقينا اقبال كثير حيث اصبحنا نمثل الوجخة الاولى في ولاية تيبازة و باستطاعة اي شخص المشاركة حتى و للمرة لولى</t>
         </is>
       </c>
+      <c r="E7" t="n">
+        <v>201.6105194091797</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -600,157 +623,151 @@
           <t>محطة غسيل السياراة-لم اعثر عنها  اريد الاندماج معكم</t>
         </is>
       </c>
+      <c r="E8" t="n">
+        <v>294.7171936035156</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Trading / التداول</t>
+          <t>Coiffure esthétique</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Le Trading c’est analyser les marchés ( la bourse ) c’est un domaine dans les 4  ou 5 dernières années très populaire et la plupart des jeunes ils sont concentrés en ce domaine, Je pense que c’est une bonne idée l’autoriser dans notre pays et Ils peuvent payer des impôts et travailler légalement _x000D_
-Merci pour votre attention.</t>
+          <t>Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Trading / التداول-Le Trading c’est analyser les marchés ( la bourse ) c’est un domaine dans les 4  ou 5 dernières années très populaire et la plupart des jeunes ils sont concentrés en ce domaine, Je pense que c’est une bonne idée l’autoriser dans notre pays et Ils peuvent payer des impôts et travailler légalement _x000D_
-Merci pour votre attention.</t>
-        </is>
+          <t>Coiffure esthétique-Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>133.9035034179688</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Coiffure esthétique</t>
+          <t>سياقة درجة نارية</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
+          <t>Easy &amp; Speed</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Coiffure esthétique-Nettoyage de peau , épilation, coiffure et maquillage pour femmes</t>
-        </is>
+          <t>سياقة درجة نارية-Easy &amp; Speed</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>364.4752502441406</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Services aux entreprises</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>سياقة درجة نارية</t>
+          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Easy &amp; Speed</t>
+          <t>انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>سياقة درجة نارية-Easy &amp; Speed</t>
-        </is>
+          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة-انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>346.0107421875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Services aux entreprises</t>
+          <t>Services à la personne</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة</t>
+          <t>صنع الأطعمة و الأطباق المعدة</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
+          <t>نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
+أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>انجاز اللوحات الاشهارية المضيئة و الغير مضيئة و الطبوعة-انجاز اللوحات المعرفة للمؤسسات و الادارات سواء كانت مضيئة عادية   على الة دات التحكم الرقمي  و طباعة الافتات بمختلف الاحجام بطابعه و انجاز الديكور</t>
-        </is>
+          <t>صنع الأطعمة و الأطباق المعدة-نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
+أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>256.4198303222656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Services à la personne</t>
+          <t>Prestations à domicile</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>صنع الأطعمة و الأطباق المعدة</t>
+          <t>تركيب الهوائيات المقعرة montage parabole</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
-أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
+          <t>اعمال التركيب _x000D_
+وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>صنع الأطعمة و الأطباق المعدة-نقوم بصنع و تحضير أطعمة تقليدية او غير تقليدية و بيعها للعمال او الرياضيين _x000D_
-أرجو منكم إضافتها لكي أعمل بطريقة قانونية</t>
-        </is>
+          <t>تركيب الهوائيات المقعرة montage parabole-اعمال التركيب _x000D_
+وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>406.7727966308594</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Prestations à domicile</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>تركيب الهوائيات المقعرة montage parabole</t>
+          <t>Conseiller en gestion et commercialisation des centres commerciaux</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
-        <is>
-          <t>اعمال التركيب _x000D_
-وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>تركيب الهوائيات المقعرة montage parabole-اعمال التركيب _x000D_
-وتحديث الاجهزة الرقمية واستقبال القنوات الفضائية</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Conseil, Expertise et formation</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Conseiller en gestion et commercialisation des centres commerciaux</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>-Conseillez les entrepreneurs a bien dessiner le centre commerciale, dés le départ (hauteurs sous plafond, sens de circulations des clients, tailles des boutiques, quai de déchargement, aspect technique des centres ....)_x000D_
 _x000D_
@@ -760,7 +777,7 @@
 -Conseiller les entrepreneurs sur la gestion du centre après ouverture</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Conseiller en gestion et commercialisation des centres commerciaux--Conseillez les entrepreneurs a bien dessiner le centre commerciale, dés le départ (hauteurs sous plafond, sens de circulations des clients, tailles des boutiques, quai de déchargement, aspect technique des centres ....)_x000D_
 _x000D_
@@ -770,6 +787,9 @@
 -Conseiller les entrepreneurs sur la gestion du centre après ouverture</t>
         </is>
       </c>
+      <c r="E14" t="n">
+        <v>362.5873107910156</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
